--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1882.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1882.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.694030410221736</v>
+        <v>1.656247615814209</v>
       </c>
       <c r="B1">
-        <v>4.45840094114592</v>
+        <v>1.643027424812317</v>
       </c>
       <c r="C1">
-        <v>3.889053129202903</v>
+        <v>1.95225715637207</v>
       </c>
       <c r="D1">
-        <v>1.083999951880945</v>
+        <v>3.586067676544189</v>
       </c>
       <c r="E1">
-        <v>0.6379484692534928</v>
+        <v>3.845049858093262</v>
       </c>
     </row>
   </sheetData>
